--- a/Proyecto Final/Clasificacion de requerimientos.xlsx
+++ b/Proyecto Final/Clasificacion de requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Tareas universidad\2do semestre\Ingenieria de requisitos\PROYECTO FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5035066e1e3d597/Escritorio/ISWREQUERIMIENTOS202502-1Juan-Cuaran/Proyecto Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27E3C6B-9B8A-4C3F-826C-5D652190C6E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55A1F022-64F6-4234-85EF-B8A9BEBA99DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -68,27 +68,6 @@
   </si>
   <si>
     <t>RNF006</t>
-  </si>
-  <si>
-    <t>RNF015</t>
-  </si>
-  <si>
-    <t>RNF016</t>
-  </si>
-  <si>
-    <t>RNF017</t>
-  </si>
-  <si>
-    <t>RNF018</t>
-  </si>
-  <si>
-    <t>RNF019</t>
-  </si>
-  <si>
-    <t>RNF020</t>
-  </si>
-  <si>
-    <t>RNF021</t>
   </si>
   <si>
     <t>RNF022</t>
@@ -262,12 +241,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>Impedir el acceso de visitantes restringidos</t>
-  </si>
-  <si>
-    <t>El sistema debe impedir al acesso al edificio de personas no registradas o que tengan algun tipo de restriccion</t>
-  </si>
-  <si>
     <t>Sistema/Vigilante</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>El sistema debe permitir al adminsitrador eliminar personal de seguridad</t>
   </si>
   <si>
-    <t>Administrar permisos de operación según el rol</t>
-  </si>
-  <si>
     <t>El sistema deberá gestionar cuatro roles de usuario (administrador, vigilante, empleado y visitante), estableciendo los niveles de acceso y las operaciones permitidas para cada uno.</t>
   </si>
   <si>
@@ -341,6 +311,51 @@
   </si>
   <si>
     <t>El sistema debe registrar la puerta por la cual accedio el visitante</t>
+  </si>
+  <si>
+    <t>Restringir visitantes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al personal de seguridad restringir el acceso al edificio de los visitantes registrados</t>
+  </si>
+  <si>
+    <t>Consultar Visitantes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al vigilante consultar los registros de visitantes en el sistema usando la identificacion</t>
+  </si>
+  <si>
+    <t>Gestion de permisos</t>
+  </si>
+  <si>
+    <t>Cerrar sesion</t>
+  </si>
+  <si>
+    <t>El sistema debe tener la opcion de cerrar sesion para volver al menu de autenticacion</t>
+  </si>
+  <si>
+    <t>Vigilante/Administrador</t>
+  </si>
+  <si>
+    <t>RQ015</t>
+  </si>
+  <si>
+    <t>RQ016</t>
+  </si>
+  <si>
+    <t>RQ017</t>
+  </si>
+  <si>
+    <t>RQ018</t>
+  </si>
+  <si>
+    <t>RQ019</t>
+  </si>
+  <si>
+    <t>RQ020</t>
+  </si>
+  <si>
+    <t>RQ021</t>
   </si>
 </sst>
 </file>
@@ -763,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD9EED-8C58-49FB-B1A2-A7F62C5DCD41}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="76" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,357 +805,373 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1185,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,16 +1224,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1210,16 +1241,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1227,16 +1258,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1244,16 +1275,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1261,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,38 +1309,38 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto Final/Clasificacion de requerimientos.xlsx
+++ b/Proyecto Final/Clasificacion de requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5035066e1e3d597/Escritorio/ISWREQUERIMIENTOS202502-1Juan-Cuaran/Proyecto Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27E3C6B-9B8A-4C3F-826C-5D652190C6E0}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7DBF58-B3AE-4FE4-8F62-76B85A261130}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55A1F022-64F6-4234-85EF-B8A9BEBA99DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>RNF006</t>
-  </si>
-  <si>
-    <t>RNF022</t>
   </si>
   <si>
     <t>Encriptacion de credenciales</t>
@@ -238,21 +235,12 @@
     <t>RQ014</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Sistema/Vigilante</t>
-  </si>
-  <si>
     <t>Vigilante</t>
   </si>
   <si>
     <t>Generar registros</t>
   </si>
   <si>
-    <t>El sistema debera notificarle al vigilante sobre un acceso restringido una vez el visitante muestre su credencial y sea procesada por el sistema</t>
-  </si>
-  <si>
     <t>RNF007</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>Consulta de reportes</t>
   </si>
   <si>
-    <t>Notificar acceso restringido</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El sistema debe almacenar los registros tanto en la nube como en un respaldo local</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>El sistema debe permitir al adminsitrador eliminar personal de seguridad</t>
   </si>
   <si>
-    <t>El sistema deberá gestionar cuatro roles de usuario (administrador, vigilante, empleado y visitante), estableciendo los niveles de acceso y las operaciones permitidas para cada uno.</t>
-  </si>
-  <si>
     <t>Consultar Usuarios del sistema</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>El sistema debe permitir al vigilante consultar los registros de visitantes en el sistema usando la identificacion</t>
   </si>
   <si>
-    <t>Gestion de permisos</t>
-  </si>
-  <si>
     <t>Cerrar sesion</t>
   </si>
   <si>
@@ -356,6 +335,87 @@
   </si>
   <si>
     <t>RQ021</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Exportar a PDF</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir exportar los reportes a PDF</t>
+  </si>
+  <si>
+    <t>Cambiar duracion</t>
+  </si>
+  <si>
+    <t>Añadir duracion</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador cambiar la duracion de las credenciales digitales para cada rol</t>
+  </si>
+  <si>
+    <t>El sistema debe permitiral administrador añadir duracion de las credenciales para cada rol</t>
+  </si>
+  <si>
+    <t>RNF008</t>
+  </si>
+  <si>
+    <t>RQ022</t>
+  </si>
+  <si>
+    <t>Control de acceso por horario del visitante</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir establecer una fecha y hora de vencimiento para las credenciales temporales asignadas a visitantes, proveedores o empleados. Aunque la credencial este activa, si el visitante acude en un horario no apto, se le impide la entrada</t>
+  </si>
+  <si>
+    <t>RQ023</t>
+  </si>
+  <si>
+    <t>RQ024</t>
+  </si>
+  <si>
+    <t>RQ025</t>
+  </si>
+  <si>
+    <t>RQ026</t>
+  </si>
+  <si>
+    <t>Modo de emergencia</t>
+  </si>
+  <si>
+    <t>El sistema debe contar con un modo de emergencia que desbloquee automáticamente las puertas de salida designadas cuando se active una alarma o protocolo de evacuación.</t>
+  </si>
+  <si>
+    <t>Acceso en modo ofline</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir registrar accesos en modo offline y sincronizar los registros con la base de datos central cuando se restablezca la conexión a internet.</t>
+  </si>
+  <si>
+    <t>Registro de intentos fallidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe registrar cada intento de acceso fallido; incluyendo incluyendo fecha, hora, usuario y terminal utilizada. El administrador podra consultarlo </t>
+  </si>
+  <si>
+    <t>RNF009</t>
+  </si>
+  <si>
+    <t>Tiempo de respuesta de procesamiento</t>
+  </si>
+  <si>
+    <t>El sistema deberá procesar la lectura de credenciales en un tiempo máximo de 2 segundos.</t>
+  </si>
+  <si>
+    <t>Respaldo automático diario</t>
+  </si>
+  <si>
+    <t>La base de datos deberá respaldarse automáticamente cada 24 horas.</t>
+  </si>
+  <si>
+    <t>RNF010</t>
   </si>
 </sst>
 </file>
@@ -392,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +462,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +540,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD9EED-8C58-49FB-B1A2-A7F62C5DCD41}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,378 +898,442 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766F1415-61CB-43DA-86CC-04F62626F2E5}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,16 +1381,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1258,16 +1415,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,16 +1432,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1292,16 +1449,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,39 +1466,88 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Proyecto Final/Clasificacion de requerimientos.xlsx
+++ b/Proyecto Final/Clasificacion de requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5035066e1e3d597/Escritorio/ISWREQUERIMIENTOS202502-1Juan-Cuaran/Proyecto Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7DBF58-B3AE-4FE4-8F62-76B85A261130}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45AAB388-21BE-4BA1-970D-D1C99DBD631C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55A1F022-64F6-4234-85EF-B8A9BEBA99DC}"/>
   </bookViews>
@@ -452,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,9 +544,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD9EED-8C58-49FB-B1A2-A7F62C5DCD41}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1257,7 @@
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1317,7 +1308,7 @@
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="3" t="s">

--- a/Proyecto Final/Clasificacion de requerimientos.xlsx
+++ b/Proyecto Final/Clasificacion de requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5035066e1e3d597/Escritorio/ISWREQUERIMIENTOS202502-1Juan-Cuaran/Proyecto Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45AAB388-21BE-4BA1-970D-D1C99DBD631C}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F8996A6A-10D3-492E-90B4-94D60DD80663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7FD823-63A9-4429-BF82-145E220A4524}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55A1F022-64F6-4234-85EF-B8A9BEBA99DC}"/>
   </bookViews>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD9EED-8C58-49FB-B1A2-A7F62C5DCD41}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1308,7 +1308,7 @@
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
